--- a/biology/Virologie/Orthobunyavirus/Orthobunyavirus.xlsx
+++ b/biology/Virologie/Orthobunyavirus/Orthobunyavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthobunyavirus est un genre de virus de la famille des Peribunyaviridae et de l'ordre des Bunyavirales. Ce sont des virus à ARN simple brin à polarité négative (Groupe V).
 Le virus de Bunyamwera (BUNV) et le virus de La Crosse (en) en sont les souches de référence. Les rongeurs constituent leur réservoir ; les moustiques et les tiques en sont les vecteurs. Ils sont principalement transmis à l'animal par différentes espèces de Culicoides. Une transmission par d'autres espèces de moustiques reste possible ainsi que par voie materno-fœtale.
-Le virus de Schmallenberg, par exemple, découvert en Allemagne en novembre 2011, est transmis aux ruminants par des vecteurs Culicoides ou par voie placentaire, provoquant fièvre, altération de l'état général, baisse du rendement laitier, mortinatalité et malformations pour les veaux, agneaux et chevreaux [2]. La surveillance des populations humaines à risque ne montre pas de potentiel zoonotique[2].
+Le virus de Schmallenberg, par exemple, découvert en Allemagne en novembre 2011, est transmis aux ruminants par des vecteurs Culicoides ou par voie placentaire, provoquant fièvre, altération de l'état général, baisse du rendement laitier, mortinatalité et malformations pour les veaux, agneaux et chevreaux . La surveillance des populations humaines à risque ne montre pas de potentiel zoonotique.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On dénombre 103 espèces d'Orthobunyavirus[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dénombre 103 espèces d'Orthobunyavirus :
 Abras orthobunyavirus
 Acara orthobunyavirus
 Aino orthobunyavirus
